--- a/results/I3_N5_M2_T30_C100_DepCentral_s1_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s1_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2377.445140676658</v>
+        <v>847.4458118050944</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.70808500682834</v>
+        <v>32.95228128930657</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.62260060507976</v>
+        <v>10.14970312514439</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.609656274901689</v>
+        <v>8.643233640932282</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1964.070000000007</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>396.6799999999999</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -672,10 +672,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -799,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.788310969284332</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.60181147454999</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.2163689211052</v>
+        <v>22.48909622152298</v>
       </c>
     </row>
     <row r="7">
@@ -1002,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.72026482307932</v>
+        <v>23.91429431698742</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.95831999634839</v>
+        <v>27.23104729676617</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +1024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,10 +1056,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1070,10 +1070,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1084,10 +1084,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1098,10 +1098,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1112,10 +1112,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1126,10 +1126,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1140,10 +1140,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1182,10 +1182,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1196,10 +1196,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -1224,113 +1224,15 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -1444,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1455,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -1466,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -1477,7 +1379,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1488,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>40.77499999999971</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1499,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>34.87999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1510,7 +1412,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>37.77499999999971</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1521,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>41.01499999999971</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1532,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>41.88499999999971</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1543,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>121.8299999999988</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1554,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>117.98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
@@ -1565,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>105.775</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
@@ -1576,7 +1478,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>117.255</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21">
@@ -1587,7 +1489,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>119.6049999999988</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
@@ -1598,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>197.7199999999993</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23">
@@ -1609,7 +1511,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>193.6700000000005</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24">
@@ -1620,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>185.9750000000005</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25">
@@ -1631,7 +1533,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>197.5100000000005</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26">
@@ -1642,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>195.1699999999993</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27">
@@ -1653,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>204.6250000000007</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -1664,7 +1566,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>199.3150000000007</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
@@ -1675,7 +1577,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>199.9050000000007</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -1686,7 +1588,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>201.0650000000007</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -1697,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>207.0800000000006</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
@@ -1708,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>204.6250000000007</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
@@ -1719,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>199.3150000000007</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34">
@@ -1730,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>199.9050000000007</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35">
@@ -1741,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>201.0650000000007</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36">
@@ -1752,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>207.0800000000006</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
@@ -1763,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>197.7199999999993</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38">
@@ -1774,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>193.6700000000005</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39">
@@ -1785,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>185.9750000000005</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40">
@@ -1796,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>197.5100000000005</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41">
@@ -1807,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>195.1699999999993</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1854,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>104.6250000000007</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1865,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>99.31500000000065</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1876,7 +1778,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>99.90500000000065</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1887,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>101.0650000000007</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1898,7 +1800,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>107.0800000000006</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1909,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>97.71999999999935</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -1920,7 +1822,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>93.67000000000053</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
@@ -1931,7 +1833,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>85.97500000000051</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -1942,7 +1844,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>97.51000000000053</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -1953,7 +1855,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>95.16999999999933</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -2011,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -2022,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -2033,7 +1935,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -2044,7 +1946,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -2055,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2066,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>10.345</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2077,7 +1979,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.875</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2088,7 +1990,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2099,7 +2001,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7.380000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2110,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2121,7 +2023,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2132,7 +2034,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2143,7 +2045,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2154,7 +2056,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2220,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2231,7 +2133,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2242,7 +2144,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2253,7 +2155,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2264,7 +2166,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +2180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2305,7 +2207,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2316,7 +2218,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2327,7 +2229,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2338,7 +2240,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2349,7 +2251,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2360,7 +2262,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2371,7 +2273,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2382,7 +2284,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2393,7 +2295,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2404,7 +2306,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2415,7 +2317,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2426,7 +2328,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2437,89 +2339,12 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
